--- a/TestsAndDemos/Etk.Demo.Shops.UI.Excel/Etk.Demo.Shops.UI.Excel.xlsx
+++ b/TestsAndDemos/Etk.Demo.Shops.UI.Excel/Etk.Demo.Shops.UI.Excel.xlsx
@@ -9,23 +9,19 @@
   <sheets>
     <sheet name="Shops" sheetId="1" r:id="rId1"/>
     <sheet name="TemplatesShops" sheetId="2" r:id="rId2"/>
+    <sheet name="TemplatesShops_Ref" sheetId="3" r:id="rId3"/>
+    <sheet name="TemplatesShops_Ref_Expander" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>{Id}</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="35">
   <si>
     <t>{Name}</t>
   </si>
   <si>
-    <t>{ReceptionPhone}</t>
-  </si>
-  <si>
     <t>&lt;EndTemplate Name='Main'/&gt;</t>
   </si>
   <si>
@@ -54,13 +50,90 @@
   </si>
   <si>
     <t>&lt;Template Name='Main' BindingWith='ShopViewModel'/&gt;</t>
+  </si>
+  <si>
+    <t>{Ident}</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Forename</t>
+  </si>
+  <si>
+    <t>Surname</t>
+  </si>
+  <si>
+    <t>Customers</t>
+  </si>
+  <si>
+    <t>&lt;EndTemplate Name='Customers'/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Link To='Customers' With='Customers'/&gt;</t>
+  </si>
+  <si>
+    <t>{Customer.Forename}</t>
+  </si>
+  <si>
+    <t>{Customer.Surname}</t>
+  </si>
+  <si>
+    <t>&lt;Template Name='Customers' BindingWith='CustomerViewModel' /&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> {Phone}</t>
+  </si>
+  <si>
+    <t>{LDC=SheetShops,Etk.Demo.Shops.UI.Excel,DisplayName:{{Customer.Forename} {Customer.Surname}}}</t>
+  </si>
+  <si>
+    <t>{LDC=,,DisplayName:Customer.Id}</t>
+  </si>
+  <si>
+    <t>&lt;Template Name='Main' BindingWith='ShopsViewModel'/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Template Name='ShopMain' BindingWith='ShopViewModel'/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;EndTemplate Name='ShopMain'/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Link To='ShopMain' With='ShopsToDisplay'/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;EndTemplate Name='ShopExpand'/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Link To='ShopExpand'/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Header/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Template Name='ShopExpand' BindingWith='ShopViewModel' HeaderAsExpander='SC'/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Template Name='CustomersMain' BindingWith='CustomerViewModel' /&gt;</t>
+  </si>
+  <si>
+    <t>&lt;EndTemplate Name='CustomersMain'/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Link To='CustomersMain' With='Customers'/&gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$€-1]_-;\-* #,##0.00\ [$€-1]_-;_-* &quot;-&quot;??\ [$€-1]_-"/>
+  </numFmts>
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -75,8 +148,57 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="NewsGoth Lt BT"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="NewsGoth Dm BT"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="NewsGoth Dm BT"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="NewsGoth BT"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="NewsGoth BT"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="7.5"/>
+      <name val="NewsGoth Lt BT"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="NewsGoth Lt BT"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -107,8 +229,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -117,34 +263,8 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -168,37 +288,336 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color indexed="22"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="10" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="3" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="7" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="102">
+    <cellStyle name="Comma 2" xfId="4"/>
+    <cellStyle name="Comma 2 2" xfId="5"/>
+    <cellStyle name="Comma 3" xfId="6"/>
+    <cellStyle name="Comma 3 2" xfId="97"/>
+    <cellStyle name="Comma 4" xfId="3"/>
+    <cellStyle name="Comma 4 2" xfId="100"/>
+    <cellStyle name="Comma 5" xfId="96"/>
+    <cellStyle name="Euro" xfId="7"/>
+    <cellStyle name="Euro 2" xfId="8"/>
+    <cellStyle name="Euro 2 2" xfId="9"/>
+    <cellStyle name="Euro 2 3" xfId="10"/>
+    <cellStyle name="Euro 3" xfId="11"/>
+    <cellStyle name="Euro 3 2" xfId="12"/>
+    <cellStyle name="Euro 4" xfId="13"/>
+    <cellStyle name="Euro 4 2" xfId="14"/>
+    <cellStyle name="Euro 5" xfId="15"/>
+    <cellStyle name="header" xfId="95"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="16"/>
+    <cellStyle name="Normal 2 2" xfId="1"/>
+    <cellStyle name="Normal 2 2 2" xfId="17"/>
+    <cellStyle name="Normal 2 2 2 2" xfId="18"/>
+    <cellStyle name="Normal 2 2 3" xfId="19"/>
+    <cellStyle name="Normal 2 2 3 2" xfId="20"/>
+    <cellStyle name="Normal 2 2 4" xfId="21"/>
+    <cellStyle name="Normal 2 3" xfId="22"/>
+    <cellStyle name="Normal 2 3 2" xfId="23"/>
+    <cellStyle name="Normal 2 4" xfId="24"/>
+    <cellStyle name="Normal 2 4 2" xfId="25"/>
+    <cellStyle name="Normal 2 5" xfId="26"/>
+    <cellStyle name="Normal 2 6" xfId="94"/>
+    <cellStyle name="Normal 3" xfId="2"/>
+    <cellStyle name="Normal 3 2" xfId="90"/>
+    <cellStyle name="Normal 4" xfId="91"/>
+    <cellStyle name="Normal 4 2" xfId="99"/>
+    <cellStyle name="Normal 5" xfId="92"/>
+    <cellStyle name="Normal 5 2" xfId="93"/>
+    <cellStyle name="Percent 2" xfId="28"/>
+    <cellStyle name="Percent 2 2" xfId="29"/>
+    <cellStyle name="Percent 3" xfId="30"/>
+    <cellStyle name="Percent 3 2" xfId="98"/>
+    <cellStyle name="Percent 4" xfId="27"/>
+    <cellStyle name="Percent 4 2" xfId="101"/>
+    <cellStyle name="Standard_mat" xfId="31"/>
+    <cellStyle name="Style 1" xfId="32"/>
+    <cellStyle name="Style 1 2" xfId="33"/>
+    <cellStyle name="Style 1 2 2" xfId="34"/>
+    <cellStyle name="Style 1 3" xfId="35"/>
+    <cellStyle name="Style 1 3 2" xfId="36"/>
+    <cellStyle name="Style 1 4" xfId="37"/>
+    <cellStyle name="Style 1 4 2" xfId="38"/>
+    <cellStyle name="swpBody01" xfId="39"/>
+    <cellStyle name="swpBodyFirstCol" xfId="40"/>
+    <cellStyle name="swpCaption" xfId="41"/>
+    <cellStyle name="swpClear" xfId="42"/>
+    <cellStyle name="swpClear 2" xfId="43"/>
+    <cellStyle name="swpClear 2 2" xfId="44"/>
+    <cellStyle name="swpClear 2 3" xfId="45"/>
+    <cellStyle name="swpClear 3" xfId="46"/>
+    <cellStyle name="swpClear 3 2" xfId="47"/>
+    <cellStyle name="swpClear 4" xfId="48"/>
+    <cellStyle name="swpClear 4 2" xfId="49"/>
+    <cellStyle name="swpClear 5" xfId="50"/>
+    <cellStyle name="swpHBBookTitle" xfId="51"/>
+    <cellStyle name="swpHBChapterTitle" xfId="52"/>
+    <cellStyle name="swpHead01" xfId="53"/>
+    <cellStyle name="swpHead01R" xfId="54"/>
+    <cellStyle name="swpHead02" xfId="55"/>
+    <cellStyle name="swpHead02R" xfId="56"/>
+    <cellStyle name="swpHead03" xfId="57"/>
+    <cellStyle name="swpHead03R" xfId="58"/>
+    <cellStyle name="swpHeadBraL" xfId="59"/>
+    <cellStyle name="swpHeadBraL 2" xfId="60"/>
+    <cellStyle name="swpHeadBraL 2 2" xfId="61"/>
+    <cellStyle name="swpHeadBraL 2 3" xfId="62"/>
+    <cellStyle name="swpHeadBraL 3" xfId="63"/>
+    <cellStyle name="swpHeadBraL 3 2" xfId="64"/>
+    <cellStyle name="swpHeadBraL 4" xfId="65"/>
+    <cellStyle name="swpHeadBraL 4 2" xfId="66"/>
+    <cellStyle name="swpHeadBraL 5" xfId="67"/>
+    <cellStyle name="swpHeadBraM" xfId="68"/>
+    <cellStyle name="swpHeadBraM 2" xfId="69"/>
+    <cellStyle name="swpHeadBraM 2 2" xfId="70"/>
+    <cellStyle name="swpHeadBraM 2 3" xfId="71"/>
+    <cellStyle name="swpHeadBraM 3" xfId="72"/>
+    <cellStyle name="swpHeadBraM 3 2" xfId="73"/>
+    <cellStyle name="swpHeadBraM 4" xfId="74"/>
+    <cellStyle name="swpHeadBraM 4 2" xfId="75"/>
+    <cellStyle name="swpHeadBraM 5" xfId="76"/>
+    <cellStyle name="swpHeadBraR" xfId="77"/>
+    <cellStyle name="swpHeadBraR 2" xfId="78"/>
+    <cellStyle name="swpHeadBraR 2 2" xfId="79"/>
+    <cellStyle name="swpHeadBraR 2 3" xfId="80"/>
+    <cellStyle name="swpHeadBraR 3" xfId="81"/>
+    <cellStyle name="swpHeadBraR 3 2" xfId="82"/>
+    <cellStyle name="swpHeadBraR 4" xfId="83"/>
+    <cellStyle name="swpHeadBraR 4 2" xfId="84"/>
+    <cellStyle name="swpHeadBraR 5" xfId="85"/>
+    <cellStyle name="swpTag" xfId="86"/>
+    <cellStyle name="swpTotals" xfId="87"/>
+    <cellStyle name="swpTotalsNo" xfId="88"/>
+    <cellStyle name="swpTotalsTotal" xfId="89"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -489,9 +908,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -504,76 +921,598 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:F5"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="51" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="63.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6">
-      <c r="A2" s="4" t="s">
+    <row r="1" spans="1:11">
+      <c r="A1" s="1"/>
+    </row>
+    <row r="2" spans="1:11" s="2" customFormat="1"/>
+    <row r="3" spans="1:11">
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="K6" s="3"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="10"/>
+      <c r="B7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="6"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+    </row>
+    <row r="10" spans="1:11" s="3" customFormat="1">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10"/>
+      <c r="I10"/>
+    </row>
+    <row r="11" spans="1:11" s="3" customFormat="1">
+      <c r="A11" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11"/>
+      <c r="I11"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="12" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="5" t="s">
+      <c r="C13" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="6"/>
+      <c r="B14" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B12:E12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:XFD13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="81.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="43.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" s="3" customFormat="1">
+      <c r="A3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+    </row>
+    <row r="4" spans="1:10" s="3" customFormat="1">
+      <c r="A4" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+    </row>
+    <row r="5" spans="1:10" s="3" customFormat="1">
+      <c r="A5" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B5" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="4"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="5" t="s">
+      <c r="C5" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="D5" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="E5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+    </row>
+    <row r="6" spans="1:10" s="3" customFormat="1">
+      <c r="A6" s="10"/>
+      <c r="B6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="4"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="5"/>
-      <c r="B5" s="2" t="s">
+      <c r="E6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="J6" s="4"/>
+    </row>
+    <row r="7" spans="1:10" s="3" customFormat="1">
+      <c r="A7" s="6"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" s="6"/>
+    </row>
+    <row r="8" spans="1:10" s="3" customFormat="1">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+    </row>
+    <row r="9" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+    </row>
+    <row r="10" spans="1:10" s="5" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+    </row>
+    <row r="11" spans="1:10" s="3" customFormat="1">
+      <c r="A11" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+    </row>
+    <row r="12" spans="1:10" s="3" customFormat="1">
+      <c r="A12" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+    </row>
+    <row r="13" spans="1:10" s="3" customFormat="1">
+      <c r="A13" s="6"/>
+      <c r="B13" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="6"/>
+    </row>
+    <row r="14" spans="1:10" s="3" customFormat="1">
+      <c r="A14"/>
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+    </row>
+    <row r="15" spans="1:10" s="3" customFormat="1">
+      <c r="A15"/>
+      <c r="B15"/>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15"/>
+    </row>
+    <row r="16" spans="1:10" s="3" customFormat="1">
+      <c r="A16"/>
+      <c r="B16"/>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B11:E11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="53.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.140625" customWidth="1"/>
+    <col min="3" max="3" width="38.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="7"/>
+    </row>
+    <row r="4" spans="1:10" s="6" customFormat="1">
+      <c r="A4" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="6" customFormat="1">
+      <c r="A5" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+    </row>
+    <row r="6" spans="1:10" s="6" customFormat="1">
+      <c r="A6" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="6" customFormat="1">
+      <c r="A7" s="10"/>
+      <c r="B7" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J7" s="9"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="6"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="B11" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="6" customFormat="1">
+      <c r="A13" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="6" customFormat="1">
+      <c r="A14" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="2" t="s">
+      <c r="D14" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="B15" s="7"/>
+      <c r="C15" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="16" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A18" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="16" customFormat="1">
+      <c r="A19" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>3</v>
+      <c r="B19" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+    </row>
+    <row r="20" spans="1:6" s="16" customFormat="1">
+      <c r="A20" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="16" customFormat="1">
+      <c r="B21" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B3:E3"/>
+  <mergeCells count="2">
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B19:E19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TestsAndDemos/Etk.Demo.Shops.UI.Excel/Etk.Demo.Shops.UI.Excel.xlsx
+++ b/TestsAndDemos/Etk.Demo.Shops.UI.Excel/Etk.Demo.Shops.UI.Excel.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Etk-git\TestsAndDemos\Etk.Demo.Shops.UI.Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="75" windowWidth="15315" windowHeight="7995"/>
   </bookViews>
@@ -17,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="39">
   <si>
     <t>{Name}</t>
   </si>
@@ -91,47 +96,62 @@
     <t>{LDC=,,DisplayName:Customer.Id}</t>
   </si>
   <si>
+    <t>&lt;Template Name='ShopMain' BindingWith='ShopViewModel'/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;EndTemplate Name='ShopMain'/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Link To='ShopMain' With='ShopsToDisplay'/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;EndTemplate Name='ShopExpand'/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Link To='ShopExpand'/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Header/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Template Name='ShopExpand' BindingWith='ShopViewModel' HeaderAsExpander='SC'/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Template Name='CustomersMain' BindingWith='CustomerViewModel' /&gt;</t>
+  </si>
+  <si>
+    <t>&lt;EndTemplate Name='CustomersMain'/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Link To='CustomersMain' With='Customers'/&gt;</t>
+  </si>
+  <si>
+    <t>{{{Customer.Forename} {Customer.Surname}}}</t>
+  </si>
+  <si>
     <t>&lt;Template Name='Main' BindingWith='ShopsViewModel'/&gt;</t>
   </si>
   <si>
-    <t>&lt;Template Name='ShopMain' BindingWith='ShopViewModel'/&gt;</t>
-  </si>
-  <si>
-    <t>&lt;EndTemplate Name='ShopMain'/&gt;</t>
-  </si>
-  <si>
-    <t>&lt;Link To='ShopMain' With='ShopsToDisplay'/&gt;</t>
-  </si>
-  <si>
-    <t>&lt;EndTemplate Name='ShopExpand'/&gt;</t>
-  </si>
-  <si>
-    <t>&lt;Link To='ShopExpand'/&gt;</t>
-  </si>
-  <si>
-    <t>&lt;Header/&gt;</t>
-  </si>
-  <si>
-    <t>&lt;Template Name='ShopExpand' BindingWith='ShopViewModel' HeaderAsExpander='SC'/&gt;</t>
-  </si>
-  <si>
-    <t>&lt;Template Name='CustomersMain' BindingWith='CustomerViewModel' /&gt;</t>
-  </si>
-  <si>
-    <t>&lt;EndTemplate Name='CustomersMain'/&gt;</t>
-  </si>
-  <si>
-    <t>&lt;Link To='CustomersMain' With='Customers'/&gt;</t>
+    <t>&lt;Template Name='Main' BindingWith='ShopViewModel' /&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Template Name='Customers' BindingWith='CustomerViewModel' ContextMenu='A26'/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ContextualMenu Name='CustomerContextMenu'&gt;
+ &lt;MenuItem Caption='Yo !' FaceId='1089' Action='SheetShops,Etk.Demo.Shops.UI.Excel,DisplayName'/&gt;
+  &lt;MenuItem Caption='Yo Yo !!' FaceId='1090' Action='SheetShops,Etk.Demo.Shops.UI.Excel,DisplayName'/&gt;
+&lt;/ContextualMenu&gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$€-1]_-;\-* #,##0.00\ [$€-1]_-;_-* &quot;-&quot;??\ [$€-1]_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$€-1]_-;\-* #,##0.00\ [$€-1]_-;_-* &quot;-&quot;??\ [$€-1]_-"/>
   </numFmts>
   <fonts count="11">
     <font>
@@ -342,19 +362,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -474,13 +494,13 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="7" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -503,14 +523,20 @@
     <xf numFmtId="1" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="102">
     <cellStyle name="Comma 2" xfId="4"/>
@@ -618,11 +644,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -664,7 +698,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -696,9 +730,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -730,6 +765,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -905,12 +941,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
@@ -920,15 +956,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="63.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.28515625" bestFit="1" customWidth="1"/>
   </cols>
@@ -958,12 +997,12 @@
       <c r="A5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="J5" s="3"/>
@@ -1010,8 +1049,7 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="6"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="6" t="s">
+      <c r="B8" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D8" s="6"/>
@@ -1062,12 +1100,12 @@
       <c r="A12" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
       <c r="J12" s="3"/>
@@ -1121,20 +1159,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD13"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="81.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="43.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="94.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="33.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20" bestFit="1" customWidth="1"/>
@@ -1159,7 +1197,7 @@
     </row>
     <row r="3" spans="1:10" s="3" customFormat="1">
       <c r="A3" s="6" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -1172,12 +1210,12 @@
       <c r="A4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
     </row>
@@ -1251,7 +1289,7 @@
     </row>
     <row r="10" spans="1:10" s="5" customFormat="1" ht="17.25" customHeight="1">
       <c r="A10" s="6" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -1264,12 +1302,12 @@
       <c r="A11" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
     </row>
@@ -1338,10 +1376,117 @@
       <c r="F16"/>
       <c r="G16"/>
     </row>
+    <row r="26" spans="1:2" ht="15" customHeight="1">
+      <c r="A26" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="16"/>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="19"/>
+      <c r="B27" s="16"/>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="19"/>
+      <c r="B28" s="16"/>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="19"/>
+      <c r="B29" s="16"/>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="19"/>
+      <c r="B30" s="16"/>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="19"/>
+      <c r="B31" s="16"/>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="19"/>
+      <c r="B32" s="16"/>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="19"/>
+      <c r="B33" s="16"/>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="19"/>
+      <c r="B34" s="16"/>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="19"/>
+      <c r="B35" s="16"/>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="19"/>
+      <c r="B36" s="16"/>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="19"/>
+      <c r="B37" s="16"/>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="19"/>
+      <c r="B38" s="16"/>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="16"/>
+      <c r="B39" s="16"/>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="16"/>
+      <c r="B40" s="16"/>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="16"/>
+      <c r="B41" s="16"/>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="16"/>
+      <c r="B42" s="16"/>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="16"/>
+      <c r="B43" s="16"/>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="16"/>
+      <c r="B44" s="16"/>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="16"/>
+      <c r="B45" s="16"/>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="16"/>
+      <c r="B46" s="16"/>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="16"/>
+      <c r="B47" s="16"/>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="16"/>
+      <c r="B48" s="16"/>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="16"/>
+      <c r="B49" s="16"/>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="16"/>
+      <c r="B50" s="16"/>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="16"/>
+      <c r="B51" s="16"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B11:E11"/>
+    <mergeCell ref="A26:A38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1349,14 +1494,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="53.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.140625" customWidth="1"/>
@@ -1371,19 +1516,19 @@
     </row>
     <row r="4" spans="1:10" s="6" customFormat="1">
       <c r="A4" s="6" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="6" customFormat="1">
       <c r="A5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
     </row>
     <row r="6" spans="1:10" s="6" customFormat="1">
       <c r="A6" s="10" t="s">
@@ -1405,7 +1550,7 @@
     <row r="7" spans="1:10" s="6" customFormat="1">
       <c r="A7" s="10"/>
       <c r="B7" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>1</v>
@@ -1417,25 +1562,25 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="B11" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
-      <c r="B11" s="16" t="s">
+    <row r="13" spans="1:10" s="6" customFormat="1">
+      <c r="A13" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="6" customFormat="1">
+      <c r="A14" s="15" t="s">
         <v>29</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" s="6" customFormat="1">
-      <c r="A13" s="16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" s="6" customFormat="1">
-      <c r="A14" s="17" t="s">
-        <v>30</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>11</v>
@@ -1452,30 +1597,30 @@
     </row>
     <row r="15" spans="1:10">
       <c r="B15" s="7"/>
-      <c r="C15" s="16" t="s">
-        <v>34</v>
+      <c r="C15" s="14" t="s">
+        <v>33</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" s="16" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A18" s="16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" s="16" customFormat="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="14" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A18" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="14" customFormat="1">
       <c r="A19" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-    </row>
-    <row r="20" spans="1:6" s="16" customFormat="1">
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+    </row>
+    <row r="20" spans="1:6" s="14" customFormat="1">
       <c r="A20" s="10" t="s">
         <v>4</v>
       </c>
@@ -1492,7 +1637,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="16" customFormat="1">
+    <row r="21" spans="1:6" s="14" customFormat="1">
       <c r="B21" s="13" t="s">
         <v>23</v>
       </c>
@@ -1503,10 +1648,10 @@
         <v>19</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="F21" s="17" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
